--- a/R_C14_DADA2/phyloseq/init_files/colours_18sv4.xlsx
+++ b/R_C14_DADA2/phyloseq/init_files/colours_18sv4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniseong/Documents/GitHub/TAN1810_C14/R_C14_DADA2/phyloseq/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniseong/Documents/GitHub/TAN1810_C14/R_C14_DADA2/phyloseq/init_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277A4E00-B35D-0049-9C67-145C745FFE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F2EB31-8578-004A-A449-6A3FD11B969D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="460" windowWidth="27140" windowHeight="16460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="192">
   <si>
     <t>division</t>
   </si>
@@ -366,9 +366,6 @@
     <t>#2E7D32</t>
   </si>
   <si>
-    <t>#81C784</t>
-  </si>
-  <si>
     <t>#A5D6A7</t>
   </si>
   <si>
@@ -381,9 +378,6 @@
     <t>#E8F5E9</t>
   </si>
   <si>
-    <t>#42A5F5</t>
-  </si>
-  <si>
     <t>#64B5F6</t>
   </si>
   <si>
@@ -568,6 +562,42 @@
   </si>
   <si>
     <t>#60636A</t>
+  </si>
+  <si>
+    <t>Nephroselmidales</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>#D7CFCB</t>
+  </si>
+  <si>
+    <t>#9E9692</t>
+  </si>
+  <si>
+    <t>Chlorellales</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>Coccolithales</t>
+  </si>
+  <si>
+    <t>Haptophyta_Clade_HAP3_X</t>
+  </si>
+  <si>
+    <t>Haptophyta_Clade_HAP5_X</t>
+  </si>
+  <si>
+    <t>#E6C77E</t>
+  </si>
+  <si>
+    <t>#2196F3</t>
+  </si>
+  <si>
+    <t>#4CAF50</t>
   </si>
 </sst>
 </file>
@@ -961,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="169" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1025,7 +1055,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1036,7 +1066,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1047,7 +1077,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1058,7 +1088,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1069,7 +1099,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1080,7 +1110,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1102,7 +1132,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1113,7 +1143,7 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1149,7 +1179,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1160,7 +1190,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1171,7 +1201,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1179,10 +1209,10 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1190,10 +1220,10 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1201,10 +1231,10 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1215,7 +1245,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1226,7 +1256,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -1234,10 +1264,10 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1245,10 +1275,10 @@
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1256,10 +1286,10 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1270,7 +1300,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -1281,7 +1311,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1292,7 +1322,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1303,7 +1333,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -1311,10 +1341,13 @@
         <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -1324,8 +1357,11 @@
       <c r="C32" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -1333,10 +1369,13 @@
         <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -1344,10 +1383,13 @@
         <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -1355,10 +1397,10 @@
         <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -1366,10 +1408,13 @@
         <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -1377,10 +1422,10 @@
         <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -1388,10 +1433,10 @@
         <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1399,10 +1444,10 @@
         <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -1410,10 +1455,10 @@
         <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -1424,7 +1469,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -1435,7 +1480,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -1446,7 +1491,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -1457,7 +1502,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>62</v>
       </c>
@@ -1468,7 +1513,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -1479,7 +1524,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>66</v>
       </c>
@@ -1490,7 +1535,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -1617,7 +1662,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
         <v>82</v>
@@ -1625,42 +1670,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1670,10 +1715,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4ECDB2E-EDD8-E644-AC99-9091D7CA14B6}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1691,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>82</v>
@@ -1705,13 +1750,13 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" t="s">
         <v>163</v>
-      </c>
-      <c r="E2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1722,13 +1767,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1739,13 +1784,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1756,13 +1801,13 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1773,13 +1818,13 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1790,13 +1835,13 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1807,13 +1852,13 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1824,13 +1869,13 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1841,13 +1886,13 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1858,13 +1903,13 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1875,13 +1920,13 @@
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1892,13 +1937,13 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1909,13 +1954,13 @@
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1926,13 +1971,13 @@
         <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1943,13 +1988,13 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1960,13 +2005,13 @@
         <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1977,13 +2022,13 @@
         <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1994,13 +2039,13 @@
         <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -2011,13 +2056,13 @@
         <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -2028,13 +2073,13 @@
         <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -2045,13 +2090,79 @@
         <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>168</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C26" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C27" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/R_C14_DADA2/phyloseq/init_files/colours_18sv4.xlsx
+++ b/R_C14_DADA2/phyloseq/init_files/colours_18sv4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniseong/Documents/GitHub/TAN1810_C14/R_C14_DADA2/phyloseq/init_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F2EB31-8578-004A-A449-6A3FD11B969D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EDAD40-3F84-0D47-9223-16AAC4B89521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="183">
   <si>
     <t>division</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Dinoflagellata</t>
   </si>
   <si>
-    <t>Syndiniales</t>
-  </si>
-  <si>
     <t>Dinophyceae</t>
   </si>
   <si>
@@ -405,18 +402,6 @@
     <t>order</t>
   </si>
   <si>
-    <t>Chloropicales</t>
-  </si>
-  <si>
-    <t>Dolichomastigales</t>
-  </si>
-  <si>
-    <t>Mamiellales</t>
-  </si>
-  <si>
-    <t>Pyramimonadales</t>
-  </si>
-  <si>
     <t>Cryptomonadales</t>
   </si>
   <si>
@@ -507,21 +492,12 @@
     <t>#003C30</t>
   </si>
   <si>
-    <t>#00441B</t>
-  </si>
-  <si>
     <t>#1B7837</t>
   </si>
   <si>
-    <t>greens</t>
-  </si>
-  <si>
     <t>teals</t>
   </si>
   <si>
-    <t>browns</t>
-  </si>
-  <si>
     <t>blues</t>
   </si>
   <si>
@@ -570,9 +546,6 @@
     <t>white</t>
   </si>
   <si>
-    <t>#D7CFCB</t>
-  </si>
-  <si>
     <t>#9E9692</t>
   </si>
   <si>
@@ -582,22 +555,22 @@
     <t>green</t>
   </si>
   <si>
-    <t>Coccolithales</t>
-  </si>
-  <si>
     <t>Haptophyta_Clade_HAP3_X</t>
   </si>
   <si>
     <t>Haptophyta_Clade_HAP5_X</t>
   </si>
   <si>
-    <t>#E6C77E</t>
-  </si>
-  <si>
-    <t>#2196F3</t>
-  </si>
-  <si>
-    <t>#4CAF50</t>
+    <t>Calcihaptophycidae</t>
+  </si>
+  <si>
+    <t>reds</t>
+  </si>
+  <si>
+    <t>#2166AC</t>
+  </si>
+  <si>
+    <t>#92C5DE</t>
   </si>
 </sst>
 </file>
@@ -991,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="169" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1011,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1022,7 +995,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1033,7 +1006,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1044,7 +1017,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1055,7 +1028,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1066,7 +1039,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1077,7 +1050,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1088,7 +1061,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1099,7 +1072,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1110,7 +1083,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1121,7 +1094,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1132,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1143,7 +1116,7 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1154,7 +1127,7 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1165,7 +1138,7 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1176,7 +1149,7 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1187,7 +1160,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1198,7 +1171,7 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1209,7 +1182,7 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1220,23 +1193,23 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
         <v>31</v>
@@ -1247,54 +1220,54 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
         <v>109</v>
@@ -1302,10 +1275,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
         <v>110</v>
@@ -1313,10 +1286,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
         <v>111</v>
@@ -1324,99 +1297,99 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>160</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
         <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
         <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
         <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>190</v>
+        <v>119</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
         <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
         <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>125</v>
+        <v>117</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
         <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
         <v>52</v>
@@ -1427,7 +1400,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
         <v>53</v>
@@ -1438,7 +1411,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
         <v>54</v>
@@ -1449,21 +1422,21 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
         <v>96</v>
@@ -1471,10 +1444,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
         <v>97</v>
@@ -1482,10 +1455,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
         <v>98</v>
@@ -1493,7 +1466,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
         <v>63</v>
@@ -1504,7 +1477,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
         <v>64</v>
@@ -1515,18 +1488,18 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
         <v>67</v>
@@ -1537,7 +1510,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
         <v>68</v>
@@ -1548,21 +1521,21 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
         <v>101</v>
@@ -1570,7 +1543,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
         <v>73</v>
@@ -1581,7 +1554,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
         <v>74</v>
@@ -1592,7 +1565,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B53" t="s">
         <v>75</v>
@@ -1603,7 +1576,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
         <v>76</v>
@@ -1614,10 +1587,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s">
         <v>106</v>
@@ -1625,24 +1598,13 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>80</v>
-      </c>
-      <c r="B57" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1662,50 +1624,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1717,8 +1679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4ECDB2E-EDD8-E644-AC99-9091D7CA14B6}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1736,95 +1698,92 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>127</v>
+      <c r="C2" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1832,16 +1791,16 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1849,321 +1808,257 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" t="s">
         <v>157</v>
-      </c>
-      <c r="E8" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="E9" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="E10" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D12" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E12" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D13" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E13" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" t="s">
-        <v>149</v>
+        <v>32</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="E14" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>140</v>
+        <v>32</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="D15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E15" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
       <c r="C16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="E16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>182</v>
       </c>
       <c r="E17" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E18" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E19" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D21" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E21" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
         <v>45</v>
       </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
       <c r="C22" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E23" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D24" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E24" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>186</v>
-      </c>
-      <c r="D25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E25" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C26" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D26" t="s">
-        <v>153</v>
-      </c>
-      <c r="E26" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C27" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D27" t="s">
-        <v>159</v>
-      </c>
-      <c r="E27" t="s">
-        <v>164</v>
-      </c>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C28" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D28" t="s">
-        <v>158</v>
-      </c>
-      <c r="E28" t="s">
-        <v>164</v>
-      </c>
+      <c r="C28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R_C14_DADA2/phyloseq/init_files/colours_18sv4.xlsx
+++ b/R_C14_DADA2/phyloseq/init_files/colours_18sv4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniseong/Documents/GitHub/TAN1810_C14/R_C14_DADA2/phyloseq/init_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EDAD40-3F84-0D47-9223-16AAC4B89521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163D1BC6-7D4B-5543-8525-E5EF74137C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="183">
   <si>
     <t>division</t>
   </si>
@@ -549,9 +549,6 @@
     <t>#9E9692</t>
   </si>
   <si>
-    <t>Chlorellales</t>
-  </si>
-  <si>
     <t>green</t>
   </si>
   <si>
@@ -571,6 +568,9 @@
   </si>
   <si>
     <t>#92C5DE</t>
+  </si>
+  <si>
+    <t>Chloropicales</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1317,7 @@
         <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -1331,7 +1331,7 @@
         <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -1680,7 +1680,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1708,14 +1708,17 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
       <c r="C2" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" t="s">
         <v>175</v>
-      </c>
-      <c r="D2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1828,10 +1831,10 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" t="s">
         <v>179</v>
-      </c>
-      <c r="E9" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1848,7 +1851,7 @@
         <v>143</v>
       </c>
       <c r="E10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1865,7 +1868,7 @@
         <v>145</v>
       </c>
       <c r="E11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1882,7 +1885,7 @@
         <v>144</v>
       </c>
       <c r="E12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1899,7 +1902,7 @@
         <v>146</v>
       </c>
       <c r="E13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1907,10 +1910,10 @@
         <v>32</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1918,13 +1921,13 @@
         <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D15" t="s">
         <v>147</v>
       </c>
       <c r="E15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1938,7 +1941,7 @@
         <v>136</v>
       </c>
       <c r="E16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1952,7 +1955,7 @@
         <v>137</v>
       </c>
       <c r="D17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E17" t="s">
         <v>158</v>
